--- a/scenarios_and_results/Scenario_low_discount_bio_NoH2demand_A.xlsx
+++ b/scenarios_and_results/Scenario_low_discount_bio_NoH2demand_A.xlsx
@@ -1505,13 +1505,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.0007233773176707559</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.0007233773176707559</v>
       </c>
       <c r="M6">
         <v>0.001238274833138673</v>
@@ -1523,7 +1523,7 @@
         <v>0.06843738250268035</v>
       </c>
       <c r="P6">
-        <v>18.093544607586</v>
+        <v>28.66345963381345</v>
       </c>
       <c r="Q6">
         <v>0.1579078538319128</v>
@@ -1544,7 +1544,7 @@
         <v>28.66345963381458</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>10.56991502622744</v>
       </c>
       <c r="X6">
         <v>0</v>
